--- a/biology/Histoire de la zoologie et de la botanique/Reginald_Sprigg/Reginald_Sprigg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Reginald_Sprigg/Reginald_Sprigg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reginald Claude Sprigg, Reg Sprigg, (1er mars 1919, Péninsule de Yorke - 2 décembre 1994) est un géologue, paléontologue et défenseur de l'environnement australien. Il est connu pour avoir découvert en 1946 dans les collines Ediacara, en Australie-Méridionale, des spécimens de la faune de l'Édiacarien, assemblage fossile d'animaux vivants lors du Précambrien[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reginald Claude Sprigg, Reg Sprigg, (1er mars 1919, Péninsule de Yorke - 2 décembre 1994) est un géologue, paléontologue et défenseur de l'environnement australien. Il est connu pour avoir découvert en 1946 dans les collines Ediacara, en Australie-Méridionale, des spécimens de la faune de l'Édiacarien, assemblage fossile d'animaux vivants lors du Précambrien,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre des représentants de la faune de d'Édiacarien, Spriggina, est dédié à Reg Sprigg, ainsi qu'un chordé de la faune de Burgess, Metaspriggina.
-L'astéroïde 5380 Sprigg a été nommé en son honneur[3].
+L'astéroïde 5380 Sprigg a été nommé en son honneur.
 </t>
         </is>
       </c>
